--- a/ExcelSheet/file.xlsx
+++ b/ExcelSheet/file.xlsx
@@ -11,6 +11,17 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,17 +377,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -385,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2721518987341772</v>
+        <v>0.220532319391635</v>
       </c>
       <c r="C2">
-        <v>0.1044386422976501</v>
+        <v>-0.6386554621848739</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -396,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8734177215189873</v>
+        <v>0.155893536121673</v>
       </c>
       <c r="C3">
-        <v>0.1566579634464752</v>
+        <v>0.03361344537815126</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -407,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.449367088607595</v>
+        <v>0.2965779467680608</v>
       </c>
       <c r="C4">
-        <v>0.2454308093994778</v>
+        <v>0.4369747899159664</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -418,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.132911392405063</v>
+        <v>0.6387832699619772</v>
       </c>
       <c r="C5">
-        <v>0.391644908616188</v>
+        <v>-0.3361344537815126</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -429,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.879746835443038</v>
+        <v>0.6387832699619772</v>
       </c>
       <c r="C6">
-        <v>0.5535248041775457</v>
+        <v>-0.5882352941176471</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -440,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.632911392405063</v>
+        <v>0.8365019011406845</v>
       </c>
       <c r="C7">
-        <v>0.7467362924281984</v>
+        <v>-0.4117647058823529</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -451,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.246835443037975</v>
+        <v>1.079847908745247</v>
       </c>
       <c r="C8">
-        <v>0.9295039164490861</v>
+        <v>0.3361344537815126</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -462,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.886075949367088</v>
+        <v>0.8212927756653993</v>
       </c>
       <c r="C9">
-        <v>1.143603133159269</v>
+        <v>0.5966386554621849</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -473,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.5</v>
+        <v>0.5551330798479087</v>
       </c>
       <c r="C10">
-        <v>1.373368146214099</v>
+        <v>0.2436974789915966</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -484,109 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.272151898734177</v>
+        <v>0.5703422053231939</v>
       </c>
       <c r="C11">
-        <v>1.608355091383812</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0.2911392405063291</v>
-      </c>
-      <c r="C12">
-        <v>-0.1044386422976501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>0.759493670886076</v>
-      </c>
-      <c r="C13">
-        <v>-0.1462140992167102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>1.183544303797468</v>
-      </c>
-      <c r="C14">
-        <v>-0.2610966057441254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>1.968354430379747</v>
-      </c>
-      <c r="C15">
-        <v>-0.3342036553524804</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>2.759493670886076</v>
-      </c>
-      <c r="C16">
-        <v>-0.5587467362924282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>3.506329113924051</v>
-      </c>
-      <c r="C17">
-        <v>-0.7101827676240209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>4.164556962025316</v>
-      </c>
-      <c r="C18">
-        <v>-0.9503916449086162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>5.075949367088607</v>
-      </c>
-      <c r="C19">
-        <v>-1.221932114882507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>5.80379746835443</v>
-      </c>
-      <c r="C20">
-        <v>-1.509138381201044</v>
+        <v>-0.1092436974789916</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelSheet/file.xlsx
+++ b/ExcelSheet/file.xlsx
@@ -13,29 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>y1</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -51,7 +32,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -59,30 +40,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,131 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.220532319391635</v>
-      </c>
-      <c r="C2">
-        <v>-0.6386554621848739</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.155893536121673</v>
-      </c>
-      <c r="C3">
-        <v>0.03361344537815126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.2965779467680608</v>
-      </c>
-      <c r="C4">
-        <v>0.4369747899159664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.6387832699619772</v>
-      </c>
-      <c r="C5">
-        <v>-0.3361344537815126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.6387832699619772</v>
-      </c>
-      <c r="C6">
-        <v>-0.5882352941176471</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.8365019011406845</v>
-      </c>
-      <c r="C7">
-        <v>-0.4117647058823529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1.079847908745247</v>
-      </c>
-      <c r="C8">
-        <v>0.3361344537815126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.8212927756653993</v>
-      </c>
-      <c r="C9">
-        <v>0.5966386554621849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.5551330798479087</v>
-      </c>
-      <c r="C10">
-        <v>0.2436974789915966</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.5703422053231939</v>
-      </c>
-      <c r="C11">
-        <v>-0.1092436974789916</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ExcelSheet/file.xlsx
+++ b/ExcelSheet/file.xlsx
@@ -13,10 +13,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +65,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +383,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.04610492845786962</v>
+      </c>
+      <c r="C2">
+        <v>0.1090909090909091</v>
+      </c>
+      <c r="D2">
+        <v>0.01430842607313187</v>
+      </c>
+      <c r="E2">
+        <v>-0.09870129870129871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.3322734499205087</v>
+      </c>
+      <c r="C3">
+        <v>0.1558441558441558</v>
+      </c>
+      <c r="D3">
+        <v>0.217806041335453</v>
+      </c>
+      <c r="E3">
+        <v>-0.1298701298701299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.9682034976152624</v>
+      </c>
+      <c r="C4">
+        <v>0.2077922077922078</v>
+      </c>
+      <c r="D4">
+        <v>0.7329093799682035</v>
+      </c>
+      <c r="E4">
+        <v>-0.1974025974025974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.426073131955485</v>
+      </c>
+      <c r="C5">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="D5">
+        <v>1.235294117647059</v>
+      </c>
+      <c r="E5">
+        <v>-0.2753246753246753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1.871224165341812</v>
+      </c>
+      <c r="C6">
+        <v>0.3376623376623377</v>
+      </c>
+      <c r="D6">
+        <v>1.833068362480127</v>
+      </c>
+      <c r="E6">
+        <v>-0.3792207792207792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2.182829888712241</v>
+      </c>
+      <c r="C7">
+        <v>0.4</v>
+      </c>
+      <c r="D7">
+        <v>2.577106518282989</v>
+      </c>
+      <c r="E7">
+        <v>-0.509090909090909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.519872813990461</v>
+      </c>
+      <c r="C8">
+        <v>0.4727272727272727</v>
+      </c>
+      <c r="D8">
+        <v>3.149443561208267</v>
+      </c>
+      <c r="E8">
+        <v>-0.6441558441558441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3.098569157392687</v>
+      </c>
+      <c r="C9">
+        <v>0.5818181818181818</v>
+      </c>
+      <c r="D9">
+        <v>3.759936406995231</v>
+      </c>
+      <c r="E9">
+        <v>-0.7740259740259741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3.68362480127186</v>
+      </c>
+      <c r="C10">
+        <v>0.7844155844155845</v>
+      </c>
+      <c r="D10">
+        <v>4.414944356120827</v>
+      </c>
+      <c r="E10">
+        <v>-0.9714285714285714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4.166931637519873</v>
+      </c>
+      <c r="C11">
+        <v>0.961038961038961</v>
+      </c>
+      <c r="D11">
+        <v>4.94912559618442</v>
+      </c>
+      <c r="E11">
+        <v>-1.111688311688312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4.612082670906201</v>
+      </c>
+      <c r="C12">
+        <v>1.116883116883117</v>
+      </c>
+      <c r="D12">
+        <v>5.585055643879174</v>
+      </c>
+      <c r="E12">
+        <v>-1.345454545454545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5.674085850556439</v>
+      </c>
+      <c r="C13">
+        <v>1.511688311688312</v>
+      </c>
+      <c r="D13">
+        <v>5.966613672496026</v>
+      </c>
+      <c r="E13">
+        <v>-1.47012987012987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>5.972972972972974</v>
+      </c>
+      <c r="C14">
+        <v>1.631168831168831</v>
+      </c>
+      <c r="D14">
+        <v>6.348171701112878</v>
+      </c>
+      <c r="E14">
+        <v>-1.584415584415584</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ExcelSheet/file.xlsx
+++ b/ExcelSheet/file.xlsx
@@ -1,63 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>y1</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>y2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -65,36 +42,85 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -382,249 +408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.04610492845786962</v>
-      </c>
-      <c r="C2">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="D2">
-        <v>0.01430842607313187</v>
-      </c>
-      <c r="E2">
-        <v>-0.09870129870129871</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.3322734499205087</v>
-      </c>
-      <c r="C3">
-        <v>0.1558441558441558</v>
-      </c>
-      <c r="D3">
-        <v>0.217806041335453</v>
-      </c>
-      <c r="E3">
-        <v>-0.1298701298701299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.9682034976152624</v>
-      </c>
-      <c r="C4">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D4">
-        <v>0.7329093799682035</v>
-      </c>
-      <c r="E4">
-        <v>-0.1974025974025974</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1.426073131955485</v>
-      </c>
-      <c r="C5">
-        <v>0.2545454545454545</v>
-      </c>
-      <c r="D5">
-        <v>1.235294117647059</v>
-      </c>
-      <c r="E5">
-        <v>-0.2753246753246753</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1.871224165341812</v>
-      </c>
-      <c r="C6">
-        <v>0.3376623376623377</v>
-      </c>
-      <c r="D6">
-        <v>1.833068362480127</v>
-      </c>
-      <c r="E6">
-        <v>-0.3792207792207792</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2.182829888712241</v>
-      </c>
-      <c r="C7">
-        <v>0.4</v>
-      </c>
-      <c r="D7">
-        <v>2.577106518282989</v>
-      </c>
-      <c r="E7">
-        <v>-0.509090909090909</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2.519872813990461</v>
-      </c>
-      <c r="C8">
-        <v>0.4727272727272727</v>
-      </c>
-      <c r="D8">
-        <v>3.149443561208267</v>
-      </c>
-      <c r="E8">
-        <v>-0.6441558441558441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>3.098569157392687</v>
-      </c>
-      <c r="C9">
-        <v>0.5818181818181818</v>
-      </c>
-      <c r="D9">
-        <v>3.759936406995231</v>
-      </c>
-      <c r="E9">
-        <v>-0.7740259740259741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3.68362480127186</v>
-      </c>
-      <c r="C10">
-        <v>0.7844155844155845</v>
-      </c>
-      <c r="D10">
-        <v>4.414944356120827</v>
-      </c>
-      <c r="E10">
-        <v>-0.9714285714285714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>4.166931637519873</v>
-      </c>
-      <c r="C11">
-        <v>0.961038961038961</v>
-      </c>
-      <c r="D11">
-        <v>4.94912559618442</v>
-      </c>
-      <c r="E11">
-        <v>-1.111688311688312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>4.612082670906201</v>
-      </c>
-      <c r="C12">
-        <v>1.116883116883117</v>
-      </c>
-      <c r="D12">
-        <v>5.585055643879174</v>
-      </c>
-      <c r="E12">
-        <v>-1.345454545454545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>5.674085850556439</v>
-      </c>
-      <c r="C13">
-        <v>1.511688311688312</v>
-      </c>
-      <c r="D13">
-        <v>5.966613672496026</v>
-      </c>
-      <c r="E13">
-        <v>-1.47012987012987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>5.972972972972974</v>
-      </c>
-      <c r="C14">
-        <v>1.631168831168831</v>
-      </c>
-      <c r="D14">
-        <v>6.348171701112878</v>
-      </c>
-      <c r="E14">
-        <v>-1.584415584415584</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>